--- a/biology/Botanique/Salicaire_à_feuilles_d'hysope/Salicaire_à_feuilles_d'hysope.xlsx
+++ b/biology/Botanique/Salicaire_à_feuilles_d'hysope/Salicaire_à_feuilles_d'hysope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Salicaire_%C3%A0_feuilles_d%27hysope</t>
+          <t>Salicaire_à_feuilles_d'hysope</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lythrum hyssopifolia
 La Salicaire à feuilles d'hysope (Lythrum hyssopifolia) est une plante herbacée de la famille des Lythraceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Salicaire_%C3%A0_feuilles_d%27hysope</t>
+          <t>Salicaire_à_feuilles_d'hysope</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante annuelle, basse mais aux tiges plutôt érigées atteignant 50 cm, aux feuilles généralement alternes, oblongues à linéaires, aux petites fleurs roses à l'aisselle des feuilles supérieures, solitaires ou par paires. Elles possèdent 6 pétales et 4-6 étamines non saillantes.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Salicaire_%C3%A0_feuilles_d%27hysope</t>
+          <t>Salicaire_à_feuilles_d'hysope</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre cette plante à floraison estivale dans les champs ou les terrains inondables à des altitudes jusqu'à 1 700 m.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Salicaire_%C3%A0_feuilles_d%27hysope</t>
+          <t>Salicaire_à_feuilles_d'hysope</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons européen et français[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons européen et français.
 En France l'espèce se raréfie : elle est considérée en danger critique (CR) en Nord-Pas-de-Calais ; en danger (EN) en Limousin ; quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises, en Lorraine.
 </t>
         </is>
